--- a/data/trans_dic/P25A$molestias-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25A$molestias-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1484985814465535</v>
+        <v>0.1450654374916207</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08527891377290535</v>
+        <v>0.08517340637323864</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1478333621293136</v>
+        <v>0.1460178903730165</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05818523257045729</v>
+        <v>0.04188420247729987</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1076026546128509</v>
+        <v>0.10924214621581</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1389458850025179</v>
+        <v>0.1375791881767422</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07549410941146292</v>
+        <v>0.0764887255545708</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1529839585199863</v>
+        <v>0.1450132548839551</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2398485937013106</v>
+        <v>0.2343860707408254</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1538156767583324</v>
+        <v>0.1566617340185622</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2515029447967411</v>
+        <v>0.2490183581977196</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.243434575657978</v>
+        <v>0.2281558276638497</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1024655634459454</v>
+        <v>0.08830999841385193</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3752991370823439</v>
+        <v>0.3684621402148185</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2183731325578566</v>
+        <v>0.2249347685040968</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1367473004583084</v>
+        <v>0.1413470876757889</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.259430515521493</v>
+        <v>0.2484475259038062</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1625814130199239</v>
+        <v>0.1622908266555853</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07318086483073859</v>
+        <v>0.07416523553042347</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1169948084764701</v>
+        <v>0.1181627147268601</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09447465493317854</v>
+        <v>0.0991764385352894</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04943862354343034</v>
+        <v>0.05021080889788843</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0912957847473002</v>
+        <v>0.09319431947609762</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1487045674643419</v>
+        <v>0.14722038775386</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07314749183933617</v>
+        <v>0.07077575957858392</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1166397725308159</v>
+        <v>0.1202741516723071</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2669701138499744</v>
+        <v>0.2665161463534831</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1403101096907992</v>
+        <v>0.1432168707977613</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.205208483424113</v>
+        <v>0.202841741453182</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2102939500713011</v>
+        <v>0.2126757609616952</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1273075817975518</v>
+        <v>0.1290004970226437</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1886520825301134</v>
+        <v>0.1970335840661492</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2268146955120116</v>
+        <v>0.2266304482580362</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1274552214931328</v>
+        <v>0.1272696106733527</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1819796101000921</v>
+        <v>0.1822840770703984</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06971818282450032</v>
+        <v>0.07328725627178719</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02847928023302098</v>
+        <v>0.02189668050862287</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03384526000042368</v>
+        <v>0.02742372611957208</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07680143563972797</v>
+        <v>0.07597291796622699</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08202135731474904</v>
+        <v>0.07933943082762296</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05077901055327198</v>
+        <v>0.05413303600691674</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0893689656748753</v>
+        <v>0.09363047373629993</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06262880234496214</v>
+        <v>0.06386064285158603</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05391685698927685</v>
+        <v>0.05569394457558361</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2329797034222179</v>
+        <v>0.2346115205637975</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1317504738816899</v>
+        <v>0.1267248150565952</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1701368541672728</v>
+        <v>0.164655278951618</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2821647305248204</v>
+        <v>0.288976031274901</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.261873644878156</v>
+        <v>0.2663384134052412</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1774705119919505</v>
+        <v>0.1782284841970605</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2157420296648649</v>
+        <v>0.2237296956351247</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1601099285634968</v>
+        <v>0.1634532344177127</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1483526112835183</v>
+        <v>0.1471653795387643</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.160481310139349</v>
+        <v>0.1565875036098018</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08356989102812284</v>
+        <v>0.08554512908171695</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1316027408691852</v>
+        <v>0.1304489703046782</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1059772385465141</v>
+        <v>0.106804958988496</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05984457403281686</v>
+        <v>0.06258487839055131</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.102162154259961</v>
+        <v>0.09992960009298725</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1523758334189459</v>
+        <v>0.1533054900659898</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.08404057428747684</v>
+        <v>0.08204524375136643</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1282876994903369</v>
+        <v>0.1270861494550102</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2205235608698266</v>
+        <v>0.2178246520846337</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1300102799200624</v>
+        <v>0.1314242065405452</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.191862305323746</v>
+        <v>0.1896126659162049</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1956110983325092</v>
+        <v>0.189153360898776</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1218369232373616</v>
+        <v>0.1289960918323708</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1789489079292576</v>
+        <v>0.1753379968043621</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2063795779975149</v>
+        <v>0.2015938963015177</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1183928959825496</v>
+        <v>0.1192849178001658</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1758905867903382</v>
+        <v>0.1758656451055916</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>45005</v>
+        <v>43965</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>31730</v>
+        <v>31690</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>31018</v>
+        <v>30637</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2802</v>
+        <v>2017</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4049</v>
+        <v>4111</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>48802</v>
+        <v>48322</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>33304</v>
+        <v>33742</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>37856</v>
+        <v>35883</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>72691</v>
+        <v>71035</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>57230</v>
+        <v>58289</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>52770</v>
+        <v>52248</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>11723</v>
+        <v>10988</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7078</v>
+        <v>6100</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>14123</v>
+        <v>13865</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>76699</v>
+        <v>79003</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>60325</v>
+        <v>62354</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>64196</v>
+        <v>61478</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>38542</v>
+        <v>38473</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>25448</v>
+        <v>25790</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>35337</v>
+        <v>35690</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>14286</v>
+        <v>14997</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>11870</v>
+        <v>12055</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>18357</v>
+        <v>18739</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>57739</v>
+        <v>57163</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>42998</v>
+        <v>41604</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>58683</v>
+        <v>60511</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>63289</v>
+        <v>63181</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>48791</v>
+        <v>49802</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>61981</v>
+        <v>61267</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>31800</v>
+        <v>32160</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>30565</v>
+        <v>30972</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>37932</v>
+        <v>39618</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>88068</v>
+        <v>87996</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>74922</v>
+        <v>74813</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>91556</v>
+        <v>91709</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5887</v>
+        <v>6188</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2742</v>
+        <v>2108</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3033</v>
+        <v>2457</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3945</v>
+        <v>3902</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6349</v>
+        <v>6141</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4828</v>
+        <v>5146</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>12136</v>
+        <v>12715</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>10876</v>
+        <v>11090</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>9957</v>
+        <v>10286</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>19672</v>
+        <v>19809</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12683</v>
+        <v>12199</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15246</v>
+        <v>14755</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>14492</v>
+        <v>14842</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>20270</v>
+        <v>20615</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>16872</v>
+        <v>16944</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>29297</v>
+        <v>30382</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>27806</v>
+        <v>28386</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>27398</v>
+        <v>27179</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>100231</v>
+        <v>97800</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>68199</v>
+        <v>69811</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>79155</v>
+        <v>78461</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>26572</v>
+        <v>26780</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>23134</v>
+        <v>24193</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>34099</v>
+        <v>33354</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>133375</v>
+        <v>134189</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>101070</v>
+        <v>98671</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>119980</v>
+        <v>118856</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>137732</v>
+        <v>136046</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>106098</v>
+        <v>107252</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>115400</v>
+        <v>114047</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>49047</v>
+        <v>47427</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>47098</v>
+        <v>49865</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>59728</v>
+        <v>58523</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>180645</v>
+        <v>176456</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>142384</v>
+        <v>143456</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>164500</v>
+        <v>164477</v>
       </c>
     </row>
     <row r="20">
